--- a/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/08-动态展开列.xpt.xlsx
+++ b/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/08-动态展开列.xpt.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\nop-report-demo\src\main\resources\_vfs\nop\report\demo\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC191AFC-2180-49AC-ADE5-BEE85966A9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD560261-24D2-4023-929F-77551EC1E3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="XptWorkbookModel" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet2-XptSheetModel" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -96,8 +98,84 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>u</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{6D466DE3-D563-4000-B6D9-6F0941F088FC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>colParent=D3
+valueExpr=cell.cp.ei + 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{0CABFD79-F30B-4554-8620-1232D47081A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">expandType=c
+expandExpr=chenfenList
+valueExpr=cell.ev.name
+colParent=D5
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{57D40342-30EA-47D9-88B7-FF3B441BB1CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>expandType=r
+valueExpr=cell.ei+1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{3C913E17-63ED-4DEC-A167-C0C53668997F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>valueExpr=(ds1.where("chenfen",cell.cp.ev.value).field("weight") || 0) + 'g'</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>展开前</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -169,6 +247,37 @@
 ] 
 assign("chenfenList",chenfenList);
 xptRt.makeDs("ds1",ds1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>let ds1 = [
+ { "名称":"A", "规格": "x",  chenfen: "001", weight: 3} ,
+ { "名称":"A", "规格": "x",  chenfen: "003", weight: 4} ,
+ { "名称":"B", "规格": "y",  chenfen: "001", weight: 5} ,
+ { "名称":"B", "规格": "x",  chenfen: "005", weight: 6} 
+];
+let chenfenList = [
+    {value: "001",name:"成分1" },
+    {value: "002",name:"成分2" }, 
+    {value: "003",name:"成分3" },
+    {value: "004",name:"成分4" },
+    {value: "005",name:"成分5" },
+    {value: "006",name:"成分6" },
+] 
+assign("chenfenList",chenfenList);
+xptRt.makeDs("ds1",ds1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*=^ds1!名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用平面数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用结构化数据</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -325,17 +434,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,7 +763,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -665,28 +774,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
@@ -754,7 +865,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -767,23 +878,172 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="280.5" customHeight="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C37BE4-EA3E-446A-A507-7A71F546E99E}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.9140625" customWidth="1"/>
+    <col min="2" max="4" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.27000001072883606" bottom="0.27000001072883606" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD90312-C10D-43D2-B470-59DAD03A7AC2}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="61.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="280.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/08-动态展开列.xpt.xlsx
+++ b/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/08-动态展开列.xpt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\nop-report-demo\src\main\resources\_vfs\nop\report\demo\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD560261-24D2-4023-929F-77551EC1E3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8143BB8-D6F3-4842-9F13-E9016DD928EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,7 +763,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
